--- a/reports/corpus_1500-unigram_bigram-fold-3.xlsx
+++ b/reports/corpus_1500-unigram_bigram-fold-3.xlsx
@@ -558,64 +558,64 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.953939393939394</v>
+        <v>0.9781818181818182</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9900990099009901</v>
+        <v>0.9933993399339934</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9202127659574468</v>
+        <v>0.9388297872340425</v>
       </c>
       <c r="H2" t="n">
-        <v>0.972972972972973</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9553903345724907</v>
+        <v>0.9702602230483272</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7183908045977011</v>
+        <v>0.8218390804597702</v>
       </c>
       <c r="L2" t="n">
         <v>0.9090909090909091</v>
       </c>
       <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9640685461580984</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.711764705882353</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9245283018867925</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.774869109947644</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.2982456140350877</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8391787852865698</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.75</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.9585406301824212</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5319327731092437</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.8018867924528302</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.6387434554973822</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1929824561403509</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.6561163387510693</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.5</v>
-      </c>
       <c r="U2" t="n">
-        <v>0.815545710833669</v>
+        <v>0.8903208484360317</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7219455423069404</v>
+        <v>0.8296076057596681</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8726623646020703</v>
+        <v>0.9087612594266088</v>
       </c>
     </row>
     <row r="3">
@@ -631,28 +631,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9975278121137207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8356545961002786</v>
+        <v>0.8699421965317919</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9010416666666666</v>
+        <v>0.9240837696335078</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9734848484848485</v>
+        <v>0.9738805970149254</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9124087591240876</v>
+        <v>0.9255663430420712</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -661,34 +661,34 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5995850622406639</v>
+        <v>0.741811994895789</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9770114942528736</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9606299212598425</v>
+        <v>0.896969696969697</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9229843561973526</v>
+        <v>0.9378585086042065</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U3" t="n">
-        <v>0.815545710833669</v>
+        <v>0.8903208484360317</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8728855260960311</v>
+        <v>0.8989303412517081</v>
       </c>
       <c r="W3" t="n">
-        <v>0.815545710833669</v>
+        <v>0.8903208484360317</v>
       </c>
     </row>
     <row r="4">
@@ -704,64 +704,64 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9764267990074441</v>
+        <v>0.9877600979192166</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9063444108761329</v>
+        <v>0.9275808936825887</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9105263157894736</v>
+        <v>0.9313984168865435</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4210526315789474</v>
+        <v>0.6956521739130436</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9643527204502814</v>
+        <v>0.9720670391061453</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8038585209003215</v>
+        <v>0.8706240487062405</v>
       </c>
       <c r="L4" t="n">
         <v>0.9523809523809523</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7377153797064454</v>
+        <v>0.8384615384615384</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6944596818431158</v>
+        <v>0.831615120274914</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8808290155440415</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7672955974842767</v>
+        <v>0.8314606741573033</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7670000000000001</v>
+        <v>0.8857787810383748</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="U4" t="n">
-        <v>0.815545710833669</v>
+        <v>0.8903208484360317</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7654154555070586</v>
+        <v>0.852287945011478</v>
       </c>
       <c r="W4" t="n">
-        <v>0.81759838927114</v>
+        <v>0.8910799996647313</v>
       </c>
     </row>
     <row r="5">
@@ -777,58 +777,58 @@
         <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="E5" t="n">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H5" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L5" t="n">
         <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>2892</v>
+        <v>2351</v>
       </c>
       <c r="O5" t="n">
-        <v>633</v>
+        <v>847</v>
       </c>
       <c r="P5" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Q5" t="n">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="R5" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="S5" t="n">
-        <v>831</v>
+        <v>1046</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>0.815545710833669</v>
+        <v>0.8903208484360317</v>
       </c>
       <c r="V5" t="n">
         <v>7449</v>
